--- a/rhla_analysis/rhla1_6_zipf_result/k7.xlsx
+++ b/rhla_analysis/rhla1_6_zipf_result/k7.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3589589288036629</v>
+        <v>0.3589589288036624</v>
       </c>
       <c r="B2" t="n">
         <v>36.67083375280752</v>
@@ -466,12 +466,12 @@
         <v>0.1493550577053632</v>
       </c>
       <c r="D2" t="n">
-        <v>102.1588566553392</v>
+        <v>102.1588566553394</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5150082404801769</v>
+        <v>0.5150082404801753</v>
       </c>
       <c r="B3" t="n">
         <v>52.12587336834527</v>
@@ -480,26 +480,26 @@
         <v>0.1588594704684318</v>
       </c>
       <c r="D3" t="n">
-        <v>101.2136685808072</v>
+        <v>101.2136685808075</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.7000682070658932</v>
+        <v>0.7000682070658893</v>
       </c>
       <c r="B4" t="n">
-        <v>90.2032140746665</v>
+        <v>90.20321407466652</v>
       </c>
       <c r="C4" t="n">
         <v>0.1490156143923965</v>
       </c>
       <c r="D4" t="n">
-        <v>128.8491795002715</v>
+        <v>128.8491795002722</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.5274560812489894</v>
+        <v>0.5274560812489851</v>
       </c>
       <c r="B5" t="n">
         <v>64.81135603876396</v>
@@ -508,12 +508,12 @@
         <v>0.1473183978275628</v>
       </c>
       <c r="D5" t="n">
-        <v>122.875360324397</v>
+        <v>122.8753603243979</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2482514616918572</v>
+        <v>0.2482514616918555</v>
       </c>
       <c r="B6" t="n">
         <v>15.79647757405253</v>
@@ -522,12 +522,12 @@
         <v>0.1463000678886626</v>
       </c>
       <c r="D6" t="n">
-        <v>63.63095494543332</v>
+        <v>63.63095494543377</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3606928989684595</v>
+        <v>0.3606928989684576</v>
       </c>
       <c r="B7" t="n">
         <v>26.49090689967495</v>
@@ -536,12 +536,12 @@
         <v>0.1591989137813985</v>
       </c>
       <c r="D7" t="n">
-        <v>73.44449246280124</v>
+        <v>73.44449246280161</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1348532250026394</v>
+        <v>0.1348532250026397</v>
       </c>
       <c r="B8" t="n">
         <v>8.483020054655629</v>
@@ -550,12 +550,12 @@
         <v>0.1463000678886626</v>
       </c>
       <c r="D8" t="n">
-        <v>62.90557793104021</v>
+        <v>62.90557793104005</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.095679916812359</v>
+        <v>1.095679916812351</v>
       </c>
       <c r="B9" t="n">
         <v>50.8081199573644</v>
@@ -564,12 +564,12 @@
         <v>0.1388323150033944</v>
       </c>
       <c r="D9" t="n">
-        <v>46.37131627380694</v>
+        <v>46.3713162738073</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1475651231123622</v>
+        <v>0.1475651231123618</v>
       </c>
       <c r="B10" t="n">
         <v>14.51389711357142</v>
@@ -578,21 +578,21 @@
         <v>0.1496945010183299</v>
       </c>
       <c r="D10" t="n">
-        <v>98.35587710329048</v>
+        <v>98.35587710329075</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.3999253939087885</v>
+        <v>0.3999253939087907</v>
       </c>
       <c r="B11" t="n">
-        <v>25.45462313134514</v>
+        <v>25.45462313134513</v>
       </c>
       <c r="C11" t="n">
         <v>0.1350984385607603</v>
       </c>
       <c r="D11" t="n">
-        <v>63.64842922965429</v>
+        <v>63.64842922965392</v>
       </c>
     </row>
   </sheetData>
